--- a/Feature-Analysis/Resize Feature/s_10_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_10_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58744212962</v>
+        <v>738157.58744212962</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58787037036</v>
+        <v>738157.58787037036</v>
       </c>
       <c r="C3" s="0">
         <v>37.000000476837158</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58833333338</v>
+        <v>738157.58833333338</v>
       </c>
       <c r="C4" s="0">
         <v>77.000004798173904</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58856481477</v>
+        <v>738157.58856481477</v>
       </c>
       <c r="C5" s="0">
         <v>96.999996900558472</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58902777778</v>
+        <v>738157.58902777778</v>
       </c>
       <c r="C6" s="0">
         <v>137.00000122189522</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58925925929</v>
+        <v>738157.58925925929</v>
       </c>
       <c r="C7" s="0">
         <v>157.00000338256359</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.58973379631</v>
+        <v>738157.58973379631</v>
       </c>
       <c r="C8" s="0">
         <v>198.00000227987766</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5901851852</v>
+        <v>738157.5901851852</v>
       </c>
       <c r="C9" s="0">
         <v>237.00000196695328</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.5904166667</v>
+        <v>738157.5904166667</v>
       </c>
       <c r="C10" s="0">
         <v>257.00000412762165</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.5908796296</v>
+        <v>738157.5908796296</v>
       </c>
       <c r="C11" s="0">
         <v>296.99999839067459</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59112268523</v>
+        <v>738157.59112268523</v>
       </c>
       <c r="C12" s="0">
         <v>318.0000051856041</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59159722226</v>
+        <v>738157.59159722226</v>
       </c>
       <c r="C13" s="0">
         <v>359.00000408291817</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59180555551</v>
+        <v>738157.59180555551</v>
       </c>
       <c r="C14" s="0">
         <v>376.99999697506428</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.59226851852</v>
+        <v>738157.59226851852</v>
       </c>
       <c r="C15" s="0">
         <v>417.00000129640102</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59251157404</v>
+        <v>738157.59251157404</v>
       </c>
       <c r="C16" s="0">
         <v>437.99999803304672</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.59298611106</v>
+        <v>738157.59298611106</v>
       </c>
       <c r="C17" s="0">
         <v>478.99999693036079</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59343749995</v>
+        <v>738157.59343749995</v>
       </c>
       <c r="C18" s="0">
         <v>517.99999661743641</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59365740744</v>
+        <v>738157.59365740744</v>
       </c>
       <c r="C19" s="0">
         <v>537.00000420212746</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59413194447</v>
+        <v>738157.59413194447</v>
       </c>
       <c r="C20" s="0">
         <v>578.00000309944153</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59436342597</v>
+        <v>738157.59436342597</v>
       </c>
       <c r="C21" s="0">
         <v>598.0000052601099</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.594837963</v>
+        <v>738157.594837963</v>
       </c>
       <c r="C22" s="0">
         <v>639.00000415742397</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59506944439</v>
+        <v>738157.59506944439</v>
       </c>
       <c r="C23" s="0">
         <v>658.99999625980854</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.5955324074</v>
+        <v>738157.5955324074</v>
       </c>
       <c r="C24" s="0">
         <v>699.00000058114529</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59576388891</v>
+        <v>738157.59576388891</v>
       </c>
       <c r="C25" s="0">
         <v>719.00000274181366</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59621527779</v>
+        <v>738157.59621527779</v>
       </c>
       <c r="C26" s="0">
         <v>758.00000242888927</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59670138895</v>
+        <v>738157.59670138895</v>
       </c>
       <c r="C27" s="0">
         <v>800.00000596046448</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59692129632</v>
+        <v>738157.59692129632</v>
       </c>
       <c r="C28" s="0">
         <v>819.00000348687172</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59738425922</v>
+        <v>738157.59738425922</v>
       </c>
       <c r="C29" s="0">
         <v>858.99999774992466</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59784722223</v>
+        <v>738157.59784722223</v>
       </c>
       <c r="C30" s="0">
         <v>899.00000207126141</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59807870374</v>
+        <v>738157.59807870374</v>
       </c>
       <c r="C31" s="0">
         <v>919.00000423192978</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59831018513</v>
+        <v>738157.59831018513</v>
       </c>
       <c r="C32" s="0">
         <v>938.99999633431435</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59878472227</v>
+        <v>738157.59878472227</v>
       </c>
       <c r="C33" s="0">
         <v>980.00000528991222</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59901620366</v>
+        <v>738157.59901620366</v>
       </c>
       <c r="C34" s="0">
         <v>999.99999739229679</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.59946759255</v>
+        <v>738157.59946759255</v>
       </c>
       <c r="C35" s="0">
         <v>1038.9999970793724</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.59993055556</v>
+        <v>738157.59993055556</v>
       </c>
       <c r="C36" s="0">
         <v>1079.0000014007092</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60016203707</v>
+        <v>738157.60016203707</v>
       </c>
       <c r="C37" s="0">
         <v>1099.0000035613775</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.60062499996</v>
+        <v>738157.60062499996</v>
       </c>
       <c r="C38" s="0">
         <v>1138.9999978244305</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.6008680556</v>
+        <v>738157.6008680556</v>
       </c>
       <c r="C39" s="0">
         <v>1160.00000461936</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60131944448</v>
+        <v>738157.60131944448</v>
       </c>
       <c r="C40" s="0">
         <v>1199.0000043064356</v>
